--- a/task_status/task_status.xlsx
+++ b/task_status/task_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\stock_market\task_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83B568C-7B1D-4178-8D95-8243AF4F8CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983087D3-F08A-4F42-B495-326F512A171F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{3F43DE4A-851A-45BB-B590-7F335F1E203D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="159">
   <si>
     <t>Task No.</t>
   </si>
@@ -482,13 +482,421 @@
       </rPr>
       <t>!!</t>
     </r>
+  </si>
+  <si>
+    <t>1. Planning and Setup</t>
+  </si>
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Define Project Requirements</t>
+  </si>
+  <si>
+    <t>Identify core features, tools, and technologies for the project.</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Create Project Repository</t>
+  </si>
+  <si>
+    <t>Set up a GitHub repository to track project progress and code.</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Configure the Python environment and dependencies.</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>Prepare Docker Setup</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Write the initial </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Dockerfile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and test the environment setup.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Backend Development</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Research Free Stock APIs</t>
+  </si>
+  <si>
+    <t>Identify and test free APIs (e.g., NewsAPI, Finnhub) for news data.</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Fetch Stock Data</t>
+  </si>
+  <si>
+    <t>Implement a module to fetch stock-related news using the API.</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Parse API Data</t>
+  </si>
+  <si>
+    <t>Extract relevant information from the API responses.</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>Develop Sentiment Analysis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create a module to analyze sentiment using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>TextBlob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or similar.</t>
+    </r>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>Combine News &amp; Analysis</t>
+  </si>
+  <si>
+    <t>Integrate news fetching and sentiment analysis into one function.</t>
+  </si>
+  <si>
+    <t>3. Frontend Development</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Design App UI (Kivy)</t>
+  </si>
+  <si>
+    <t>Build a basic user interface for entering stock names.</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Add Input Field</t>
+  </si>
+  <si>
+    <t>Create an input field for the user to enter a company name.</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>Display Analysis Results</t>
+  </si>
+  <si>
+    <t>Show sentiment scores and "Buy" or "Sell" recommendations.</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>Error Handling in UI</t>
+  </si>
+  <si>
+    <t>Add error messages for invalid inputs or API failures.</t>
+  </si>
+  <si>
+    <t>4. Testing</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Unit Testing API Module</t>
+  </si>
+  <si>
+    <t>Write test cases for the API-fetching logic.</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Unit Testing Sentiment Module</t>
+  </si>
+  <si>
+    <t>Write test cases for the sentiment analysis module.</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Frontend Integration Testing</t>
+  </si>
+  <si>
+    <t>Ensure frontend and backend modules work together.</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Cross-Platform Testing</t>
+  </si>
+  <si>
+    <t>Test the app on multiple platforms (Linux, Windows, Android).</t>
+  </si>
+  <si>
+    <t>5. Deployment</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Build APK (Buildozer)</t>
+  </si>
+  <si>
+    <t>Generate the Android APK using Buildozer.</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Build EXE (PyInstaller)</t>
+  </si>
+  <si>
+    <t>Generate the Windows EXE using PyInstaller.</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Create Docker Image</t>
+  </si>
+  <si>
+    <t>Build and test the Docker container for the app.</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Publish Docker Image</t>
+  </si>
+  <si>
+    <t>Push the Docker image to a public registry like Docker Hub.</t>
+  </si>
+  <si>
+    <t>6. Documentation</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>Write README File</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create a comprehensive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>README.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the project.</t>
+    </r>
+  </si>
+  <si>
+    <t>DC2</t>
+  </si>
+  <si>
+    <t>API Key Configuration Guide</t>
+  </si>
+  <si>
+    <t>Document how to obtain and configure API keys.</t>
+  </si>
+  <si>
+    <t>DC3</t>
+  </si>
+  <si>
+    <t>Docker Usage Guide</t>
+  </si>
+  <si>
+    <t>Provide instructions for building and running the Docker container.</t>
+  </si>
+  <si>
+    <t>DC4</t>
+  </si>
+  <si>
+    <t>Deployment Guide</t>
+  </si>
+  <si>
+    <t>Document APK and EXE generation processes.</t>
+  </si>
+  <si>
+    <t>7. Enhancement and Future Tasks</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Advanced Sentiment Analysis</t>
+  </si>
+  <si>
+    <t>Use machine learning libraries like TensorFlow or PyTorch.</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>Historical Stock Analysis</t>
+  </si>
+  <si>
+    <t>Integrate historical stock data for trend analysis.</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>Graphical Results</t>
+  </si>
+  <si>
+    <t>Add graphs to display sentiment trends.</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>Notification System</t>
+  </si>
+  <si>
+    <t>Implement notifications for critical news updates.</t>
+  </si>
+  <si>
+    <t>Workflow in Asana</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Create Sections</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Each stage (Planning, Backend Development, etc.) can be a section in Asana.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Add Tasks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Enter the tasks into Asana with their IDs and descriptions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Assign Tasks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Assign tasks to team members.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Track Progress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Use Asana’s features to set deadlines, add comments, and mark tasks as complete.</t>
+    </r>
+  </si>
+  <si>
+    <t>Would you like help in writing Asana-specific task descriptions or templates for these activities?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +928,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -641,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -684,6 +1100,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A084827-AA1E-4D66-AEDD-62B4D0843D74}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1454,6 +1886,608 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
+    <row r="50" spans="2:4" ht="17.5">
+      <c r="B50" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="29">
+      <c r="B53" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="29">
+      <c r="B54" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="29">
+      <c r="B55" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="29">
+      <c r="B56" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+    </row>
+    <row r="59" spans="2:4" ht="17.5">
+      <c r="B59" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="29">
+      <c r="B62" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="29">
+      <c r="B63" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="29">
+      <c r="B64" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="29">
+      <c r="B65" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="43.5">
+      <c r="B66" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+    </row>
+    <row r="69" spans="2:4" ht="17.5">
+      <c r="B69" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="29">
+      <c r="B72" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="29">
+      <c r="B73" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="29">
+      <c r="B74" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="29">
+      <c r="B75" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+    </row>
+    <row r="78" spans="2:4" ht="17.5">
+      <c r="B78" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="29">
+      <c r="B81" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="29">
+      <c r="B82" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="29">
+      <c r="B83" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="29">
+      <c r="B84" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+    </row>
+    <row r="87" spans="2:4" ht="17.5">
+      <c r="B87" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="29">
+      <c r="B90" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="29">
+      <c r="B91" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="29">
+      <c r="B92" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="29">
+      <c r="B93" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+    </row>
+    <row r="96" spans="2:4" ht="17.5">
+      <c r="B96" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="29">
+      <c r="B99" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" ht="29">
+      <c r="B100" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" ht="29">
+      <c r="B101" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="29">
+      <c r="B102" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+    </row>
+    <row r="105" spans="2:4" ht="17.5">
+      <c r="B105" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="29">
+      <c r="B108" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="29">
+      <c r="B109" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" ht="29">
+      <c r="B110" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="29">
+      <c r="B111" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+    </row>
+    <row r="114" spans="2:4" ht="17.5">
+      <c r="B114" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="19"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:G4"/>
